--- a/conf/용인시 공동주택 현황.xlsx
+++ b/conf/용인시 공동주택 현황.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2280">
   <si>
     <t>연번</t>
   </si>
@@ -5002,10 +5002,10 @@
     <t>304-8283</t>
   </si>
   <si>
-    <t>수지구 풍덕천2동 1180(1180-1)</t>
-  </si>
-  <si>
-    <t>수지구 진산로34번길 29 (풍덕천동, 진산마을삼성래미안7차아파트)</t>
+    <t>수지구 풍덕천2동 1180-1(1180)</t>
+  </si>
+  <si>
+    <t>수지구 진산로66번길 27 (풍덕천동, 진산마을삼성래미안7차아파트)</t>
   </si>
   <si>
     <t>진산마을 삼성7차</t>
@@ -6759,6 +6759,12 @@
   </si>
   <si>
     <t>수지구 신봉동(신봉도시개발사업구역5블록)</t>
+  </si>
+  <si>
+    <t>수지구 풍덕천2동 1180(1180-1)</t>
+  </si>
+  <si>
+    <t>수지구 진산로34번길 29 (풍덕천동, 진산마을삼성래미안7차아파트)</t>
   </si>
   <si>
     <t>처인구 모현면 왕산리 464-2</t>
@@ -19131,10 +19137,10 @@
       <c r="A429" s="6">
         <v>184</v>
       </c>
-      <c r="B429" t="s" s="7">
+      <c r="B429" t="s" s="10">
         <v>1661</v>
       </c>
-      <c r="C429" t="s" s="7">
+      <c r="C429" t="s" s="10">
         <v>1662</v>
       </c>
       <c r="D429" t="s" s="7">
@@ -33246,10 +33252,10 @@
         <v>184</v>
       </c>
       <c r="B435" t="s" s="26">
-        <v>1661</v>
+        <v>2227</v>
       </c>
       <c r="C435" t="s" s="26">
-        <v>1662</v>
+        <v>2228</v>
       </c>
       <c r="D435" t="s" s="26">
         <v>1663</v>
@@ -34620,10 +34626,10 @@
         <v>62</v>
       </c>
       <c r="B491" t="s" s="26">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="C491" t="s" s="26">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="D491" t="s" s="26">
         <v>1873</v>
@@ -34645,10 +34651,10 @@
         <v>18</v>
       </c>
       <c r="B492" t="s" s="26">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="C492" t="s" s="26">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="D492" t="s" s="26">
         <v>1877</v>
@@ -34670,10 +34676,10 @@
         <v>74</v>
       </c>
       <c r="B493" t="s" s="26">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="C493" t="s" s="26">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="D493" t="s" s="26">
         <v>1881</v>
@@ -34695,10 +34701,10 @@
         <v>75</v>
       </c>
       <c r="B494" t="s" s="26">
-        <v>2233</v>
+        <v>2235</v>
       </c>
       <c r="C494" t="s" s="26">
-        <v>2234</v>
+        <v>2236</v>
       </c>
       <c r="D494" t="s" s="26">
         <v>1885</v>
@@ -35037,7 +35043,7 @@
         <v>80</v>
       </c>
       <c r="B508" t="s" s="26">
-        <v>2235</v>
+        <v>2237</v>
       </c>
       <c r="C508" t="s" s="26">
         <v>1931</v>
@@ -35667,10 +35673,10 @@
         <v>13</v>
       </c>
       <c r="B534" t="s" s="26">
-        <v>2236</v>
+        <v>2238</v>
       </c>
       <c r="C534" t="s" s="26">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="D534" t="s" s="26">
         <v>2024</v>
@@ -35690,10 +35696,10 @@
         <v>9</v>
       </c>
       <c r="B535" t="s" s="26">
-        <v>2238</v>
+        <v>2240</v>
       </c>
       <c r="C535" t="s" s="26">
-        <v>2239</v>
+        <v>2241</v>
       </c>
       <c r="D535" t="s" s="26">
         <v>2027</v>
@@ -35715,10 +35721,10 @@
         <v>64</v>
       </c>
       <c r="B536" t="s" s="26">
-        <v>2240</v>
+        <v>2242</v>
       </c>
       <c r="C536" t="s" s="26">
-        <v>2241</v>
+        <v>2243</v>
       </c>
       <c r="D536" t="s" s="26">
         <v>2031</v>
@@ -35740,10 +35746,10 @@
         <v>60</v>
       </c>
       <c r="B537" t="s" s="26">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="C537" t="s" s="26">
-        <v>2243</v>
+        <v>2245</v>
       </c>
       <c r="D537" t="s" s="26">
         <v>2035</v>
@@ -35765,10 +35771,10 @@
         <v>66</v>
       </c>
       <c r="B538" t="s" s="26">
-        <v>2244</v>
+        <v>2246</v>
       </c>
       <c r="C538" t="s" s="26">
-        <v>2245</v>
+        <v>2247</v>
       </c>
       <c r="D538" t="s" s="26">
         <v>2039</v>
@@ -35790,10 +35796,10 @@
         <v>81</v>
       </c>
       <c r="B539" t="s" s="26">
-        <v>2246</v>
+        <v>2248</v>
       </c>
       <c r="C539" t="s" s="26">
-        <v>2247</v>
+        <v>2249</v>
       </c>
       <c r="D539" t="s" s="26">
         <v>2043</v>
@@ -35815,10 +35821,10 @@
         <v>11</v>
       </c>
       <c r="B540" t="s" s="26">
-        <v>2248</v>
+        <v>2250</v>
       </c>
       <c r="C540" t="s" s="26">
-        <v>2249</v>
+        <v>2251</v>
       </c>
       <c r="D540" t="s" s="26">
         <v>2047</v>
@@ -35840,10 +35846,10 @@
         <v>103</v>
       </c>
       <c r="B541" t="s" s="26">
-        <v>2250</v>
+        <v>2252</v>
       </c>
       <c r="C541" t="s" s="26">
-        <v>2251</v>
+        <v>2253</v>
       </c>
       <c r="D541" t="s" s="26">
         <v>2051</v>
@@ -35863,10 +35869,10 @@
         <v>14</v>
       </c>
       <c r="B542" t="s" s="26">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="C542" t="s" s="26">
-        <v>2253</v>
+        <v>2255</v>
       </c>
       <c r="D542" t="s" s="26">
         <v>2054</v>
@@ -35888,10 +35894,10 @@
         <v>93</v>
       </c>
       <c r="B543" t="s" s="26">
-        <v>2254</v>
+        <v>2256</v>
       </c>
       <c r="C543" t="s" s="26">
-        <v>2255</v>
+        <v>2257</v>
       </c>
       <c r="D543" t="s" s="26">
         <v>2058</v>
@@ -36336,7 +36342,7 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1">
       <c r="A1" t="s" s="15">
-        <v>2256</v>
+        <v>2258</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -36358,10 +36364,10 @@
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" t="s" s="21">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="B3" t="s" s="22">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="C3" t="s" s="22">
         <v>2213</v>
@@ -36383,7 +36389,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="26">
-        <v>2259</v>
+        <v>2261</v>
       </c>
       <c r="C4" t="s" s="26">
         <v>2196</v>
@@ -36407,7 +36413,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s" s="26">
-        <v>2260</v>
+        <v>2262</v>
       </c>
       <c r="C5" t="s" s="26">
         <v>2200</v>
@@ -36515,7 +36521,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s" s="26">
-        <v>2261</v>
+        <v>2263</v>
       </c>
       <c r="C10" t="s" s="26">
         <v>2100</v>
@@ -36563,7 +36569,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="26">
-        <v>2262</v>
+        <v>2264</v>
       </c>
       <c r="C12" t="s" s="26">
         <v>2109</v>
@@ -36588,7 +36594,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s" s="26">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="C13" t="s" s="26">
         <v>2113</v>
@@ -36613,7 +36619,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s" s="26">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="C14" t="s" s="26">
         <v>2117</v>
@@ -36638,7 +36644,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s" s="26">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="C15" t="s" s="26">
         <v>2121</v>
@@ -36663,7 +36669,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="26">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="C16" t="s" s="26">
         <v>2125</v>
@@ -36711,7 +36717,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="26">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="C18" t="s" s="26">
         <v>2133</v>
@@ -36736,7 +36742,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s" s="26">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="C19" t="s" s="26">
         <v>2141</v>
@@ -36761,7 +36767,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="26">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="C20" t="s" s="26">
         <v>2137</v>
@@ -36786,7 +36792,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s" s="26">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="C21" t="s" s="26">
         <v>2145</v>
@@ -36811,7 +36817,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="26">
-        <v>2269</v>
+        <v>2271</v>
       </c>
       <c r="C22" t="s" s="26">
         <v>2149</v>
@@ -36836,7 +36842,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s" s="26">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C23" t="s" s="26">
         <v>2153</v>
@@ -36861,7 +36867,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="26">
-        <v>2270</v>
+        <v>2272</v>
       </c>
       <c r="C24" t="s" s="26">
         <v>2157</v>
@@ -36886,7 +36892,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s" s="26">
-        <v>2271</v>
+        <v>2273</v>
       </c>
       <c r="C25" t="s" s="26">
         <v>2161</v>
@@ -36911,7 +36917,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s" s="26">
-        <v>2272</v>
+        <v>2274</v>
       </c>
       <c r="C26" t="s" s="26">
         <v>2165</v>
@@ -36955,7 +36961,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s" s="26">
-        <v>2273</v>
+        <v>2275</v>
       </c>
       <c r="C28" t="s" s="26">
         <v>2177</v>
@@ -36980,7 +36986,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s" s="26">
-        <v>2274</v>
+        <v>2276</v>
       </c>
       <c r="C29" t="s" s="26">
         <v>2181</v>
@@ -37005,7 +37011,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s" s="26">
-        <v>2275</v>
+        <v>2277</v>
       </c>
       <c r="C30" t="s" s="26">
         <v>2185</v>
@@ -37030,7 +37036,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s" s="26">
-        <v>2276</v>
+        <v>2278</v>
       </c>
       <c r="C31" t="s" s="26">
         <v>2189</v>
@@ -38951,7 +38957,7 @@
         <v>875</v>
       </c>
       <c r="D91" t="s" s="103">
-        <v>2277</v>
+        <v>2279</v>
       </c>
       <c r="E91" s="104">
         <v>240</v>
@@ -40216,10 +40222,10 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" t="s" s="132">
-        <v>2257</v>
+        <v>2259</v>
       </c>
       <c r="B1" t="s" s="133">
-        <v>2258</v>
+        <v>2260</v>
       </c>
       <c r="C1" t="s" s="133">
         <v>2213</v>

--- a/conf/용인시 공동주택 현황.xlsx
+++ b/conf/용인시 공동주택 현황.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2287">
   <si>
     <t>연번</t>
   </si>
@@ -3457,7 +3457,7 @@
     <t>276-3564</t>
   </si>
   <si>
-    <t>수지구 상현동 1201(구.78-4)</t>
+    <t>수지구 상현동 1201</t>
   </si>
   <si>
     <t>수지구 상현로 152 (상현동, 수지 휴엔하임아파트)</t>
@@ -6774,6 +6774,9 @@
   </si>
   <si>
     <t>계</t>
+  </si>
+  <si>
+    <t>수지구 상현동 1201(구.78-4)</t>
   </si>
   <si>
     <t>수지구 신봉동(신봉도시개발사업구역5블록)</t>
@@ -16141,7 +16144,7 @@
       <c r="A297" s="6">
         <v>20</v>
       </c>
-      <c r="B297" t="s" s="7">
+      <c r="B297" t="s" s="10">
         <v>1146</v>
       </c>
       <c r="C297" t="s" s="7">
@@ -30034,7 +30037,7 @@
         <v>20</v>
       </c>
       <c r="B303" t="s" s="28">
-        <v>1146</v>
+        <v>2232</v>
       </c>
       <c r="C303" t="s" s="28">
         <v>1147</v>
@@ -31203,7 +31206,7 @@
         <v>95</v>
       </c>
       <c r="B350" t="s" s="28">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="C350" t="s" s="28">
         <v>1332</v>
@@ -33318,10 +33321,10 @@
         <v>184</v>
       </c>
       <c r="B435" t="s" s="28">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="C435" t="s" s="28">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="D435" t="s" s="28">
         <v>1663</v>
@@ -34692,10 +34695,10 @@
         <v>62</v>
       </c>
       <c r="B491" t="s" s="28">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="C491" t="s" s="28">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="D491" t="s" s="28">
         <v>1873</v>
@@ -34717,10 +34720,10 @@
         <v>18</v>
       </c>
       <c r="B492" t="s" s="28">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="C492" t="s" s="28">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="D492" t="s" s="28">
         <v>1877</v>
@@ -34742,10 +34745,10 @@
         <v>74</v>
       </c>
       <c r="B493" t="s" s="28">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="C493" t="s" s="28">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="D493" t="s" s="28">
         <v>1881</v>
@@ -34767,10 +34770,10 @@
         <v>75</v>
       </c>
       <c r="B494" t="s" s="28">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C494" t="s" s="28">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="D494" t="s" s="28">
         <v>1885</v>
@@ -35109,7 +35112,7 @@
         <v>80</v>
       </c>
       <c r="B508" t="s" s="28">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="C508" t="s" s="28">
         <v>1931</v>
@@ -35739,10 +35742,10 @@
         <v>13</v>
       </c>
       <c r="B534" t="s" s="28">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C534" t="s" s="28">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="D534" t="s" s="28">
         <v>2024</v>
@@ -35762,10 +35765,10 @@
         <v>9</v>
       </c>
       <c r="B535" t="s" s="28">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="C535" t="s" s="28">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="D535" t="s" s="28">
         <v>2027</v>
@@ -35787,10 +35790,10 @@
         <v>64</v>
       </c>
       <c r="B536" t="s" s="28">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="C536" t="s" s="28">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="D536" t="s" s="28">
         <v>2031</v>
@@ -35812,10 +35815,10 @@
         <v>60</v>
       </c>
       <c r="B537" t="s" s="28">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="C537" t="s" s="28">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="D537" t="s" s="28">
         <v>2035</v>
@@ -35837,10 +35840,10 @@
         <v>66</v>
       </c>
       <c r="B538" t="s" s="28">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="C538" t="s" s="28">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="D538" t="s" s="28">
         <v>2039</v>
@@ -35862,10 +35865,10 @@
         <v>81</v>
       </c>
       <c r="B539" t="s" s="28">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="C539" t="s" s="28">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="D539" t="s" s="28">
         <v>2043</v>
@@ -35887,10 +35890,10 @@
         <v>11</v>
       </c>
       <c r="B540" t="s" s="28">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="C540" t="s" s="28">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="D540" t="s" s="28">
         <v>2047</v>
@@ -35912,10 +35915,10 @@
         <v>103</v>
       </c>
       <c r="B541" t="s" s="28">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="C541" t="s" s="28">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="D541" t="s" s="28">
         <v>2051</v>
@@ -35935,10 +35938,10 @@
         <v>14</v>
       </c>
       <c r="B542" t="s" s="28">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="C542" t="s" s="28">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="D542" t="s" s="28">
         <v>2054</v>
@@ -35960,10 +35963,10 @@
         <v>93</v>
       </c>
       <c r="B543" t="s" s="28">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="C543" t="s" s="28">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="D543" t="s" s="28">
         <v>2058</v>
@@ -36408,7 +36411,7 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1">
       <c r="A1" t="s" s="17">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -36430,10 +36433,10 @@
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" t="s" s="23">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B3" t="s" s="24">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C3" t="s" s="24">
         <v>2219</v>
@@ -36455,7 +36458,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="28">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="C4" t="s" s="28">
         <v>2196</v>
@@ -36479,7 +36482,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s" s="28">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C5" t="s" s="28">
         <v>2200</v>
@@ -36587,7 +36590,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s" s="28">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="C10" t="s" s="28">
         <v>2100</v>
@@ -36635,7 +36638,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="28">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C12" t="s" s="28">
         <v>2109</v>
@@ -36660,7 +36663,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s" s="28">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="C13" t="s" s="28">
         <v>2113</v>
@@ -36685,7 +36688,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s" s="28">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C14" t="s" s="28">
         <v>2117</v>
@@ -36710,7 +36713,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s" s="28">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C15" t="s" s="28">
         <v>2121</v>
@@ -36735,7 +36738,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="28">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="C16" t="s" s="28">
         <v>2125</v>
@@ -36783,7 +36786,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="28">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C18" t="s" s="28">
         <v>2133</v>
@@ -36808,7 +36811,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s" s="28">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C19" t="s" s="28">
         <v>2141</v>
@@ -36833,7 +36836,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="28">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C20" t="s" s="28">
         <v>2137</v>
@@ -36858,7 +36861,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s" s="28">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C21" t="s" s="28">
         <v>2145</v>
@@ -36883,7 +36886,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="28">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C22" t="s" s="28">
         <v>2149</v>
@@ -36908,7 +36911,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s" s="28">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C23" t="s" s="28">
         <v>2153</v>
@@ -36933,7 +36936,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="28">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C24" t="s" s="28">
         <v>2157</v>
@@ -36958,7 +36961,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s" s="28">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C25" t="s" s="28">
         <v>2161</v>
@@ -36983,7 +36986,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s" s="28">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="C26" t="s" s="28">
         <v>2165</v>
@@ -37027,7 +37030,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s" s="28">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C28" t="s" s="28">
         <v>2177</v>
@@ -37052,7 +37055,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s" s="28">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C29" t="s" s="28">
         <v>2181</v>
@@ -37077,7 +37080,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s" s="28">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C30" t="s" s="28">
         <v>2185</v>
@@ -37102,7 +37105,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s" s="28">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="C31" t="s" s="28">
         <v>2189</v>
@@ -39023,7 +39026,7 @@
         <v>875</v>
       </c>
       <c r="D91" t="s" s="105">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="E91" s="106">
         <v>240</v>
@@ -39388,7 +39391,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s" s="119">
-        <v>1146</v>
+        <v>2232</v>
       </c>
       <c r="C110" t="s" s="119">
         <v>1147</v>
@@ -40288,10 +40291,10 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" t="s" s="134">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B1" t="s" s="135">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="C1" t="s" s="135">
         <v>2219</v>

--- a/conf/용인시 공동주택 현황.xlsx
+++ b/conf/용인시 공동주택 현황.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2288">
   <si>
     <t>연번</t>
   </si>
@@ -5062,7 +5062,7 @@
     <t>264-3503</t>
   </si>
   <si>
-    <t>수지구 풍덕천동  687-1</t>
+    <t>수지구 풍덕천동 687-1</t>
   </si>
   <si>
     <t>수지구 수지로 398 (풍덕천동, 수지우성그린빌라)</t>
@@ -6786,6 +6786,9 @@
   </si>
   <si>
     <t>수지구 진산로34번길 29 (풍덕천동, 진산마을삼성래미안7차아파트)</t>
+  </si>
+  <si>
+    <t>수지구 풍덕천동  687-1</t>
   </si>
   <si>
     <t>처인구 모현면 왕산리 464-2</t>
@@ -19279,7 +19282,7 @@
       <c r="A434" s="6">
         <v>161</v>
       </c>
-      <c r="B434" t="s" s="7">
+      <c r="B434" t="s" s="10">
         <v>1681</v>
       </c>
       <c r="C434" t="s" s="7">
@@ -33619,7 +33622,7 @@
         <v>161</v>
       </c>
       <c r="B447" t="s" s="28">
-        <v>1681</v>
+        <v>2236</v>
       </c>
       <c r="C447" t="s" s="28">
         <v>1682</v>
@@ -34695,10 +34698,10 @@
         <v>62</v>
       </c>
       <c r="B491" t="s" s="28">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="C491" t="s" s="28">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="D491" t="s" s="28">
         <v>1873</v>
@@ -34720,10 +34723,10 @@
         <v>18</v>
       </c>
       <c r="B492" t="s" s="28">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="C492" t="s" s="28">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="D492" t="s" s="28">
         <v>1877</v>
@@ -34745,10 +34748,10 @@
         <v>74</v>
       </c>
       <c r="B493" t="s" s="28">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="C493" t="s" s="28">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="D493" t="s" s="28">
         <v>1881</v>
@@ -34770,10 +34773,10 @@
         <v>75</v>
       </c>
       <c r="B494" t="s" s="28">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="C494" t="s" s="28">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="D494" t="s" s="28">
         <v>1885</v>
@@ -35112,7 +35115,7 @@
         <v>80</v>
       </c>
       <c r="B508" t="s" s="28">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="C508" t="s" s="28">
         <v>1931</v>
@@ -35742,10 +35745,10 @@
         <v>13</v>
       </c>
       <c r="B534" t="s" s="28">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="C534" t="s" s="28">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="D534" t="s" s="28">
         <v>2024</v>
@@ -35765,10 +35768,10 @@
         <v>9</v>
       </c>
       <c r="B535" t="s" s="28">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="C535" t="s" s="28">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="D535" t="s" s="28">
         <v>2027</v>
@@ -35790,10 +35793,10 @@
         <v>64</v>
       </c>
       <c r="B536" t="s" s="28">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="C536" t="s" s="28">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="D536" t="s" s="28">
         <v>2031</v>
@@ -35815,10 +35818,10 @@
         <v>60</v>
       </c>
       <c r="B537" t="s" s="28">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="C537" t="s" s="28">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="D537" t="s" s="28">
         <v>2035</v>
@@ -35840,10 +35843,10 @@
         <v>66</v>
       </c>
       <c r="B538" t="s" s="28">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="C538" t="s" s="28">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="D538" t="s" s="28">
         <v>2039</v>
@@ -35865,10 +35868,10 @@
         <v>81</v>
       </c>
       <c r="B539" t="s" s="28">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="C539" t="s" s="28">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="D539" t="s" s="28">
         <v>2043</v>
@@ -35890,10 +35893,10 @@
         <v>11</v>
       </c>
       <c r="B540" t="s" s="28">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="C540" t="s" s="28">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="D540" t="s" s="28">
         <v>2047</v>
@@ -35915,10 +35918,10 @@
         <v>103</v>
       </c>
       <c r="B541" t="s" s="28">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="C541" t="s" s="28">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="D541" t="s" s="28">
         <v>2051</v>
@@ -35938,10 +35941,10 @@
         <v>14</v>
       </c>
       <c r="B542" t="s" s="28">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="C542" t="s" s="28">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="D542" t="s" s="28">
         <v>2054</v>
@@ -35963,10 +35966,10 @@
         <v>93</v>
       </c>
       <c r="B543" t="s" s="28">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="C543" t="s" s="28">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="D543" t="s" s="28">
         <v>2058</v>
@@ -36411,7 +36414,7 @@
   <sheetData>
     <row r="1" ht="29" customHeight="1">
       <c r="A1" t="s" s="17">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -36433,10 +36436,10 @@
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" t="s" s="23">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B3" t="s" s="24">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="C3" t="s" s="24">
         <v>2219</v>
@@ -36458,7 +36461,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s" s="28">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="C4" t="s" s="28">
         <v>2196</v>
@@ -36482,7 +36485,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s" s="28">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="C5" t="s" s="28">
         <v>2200</v>
@@ -36590,7 +36593,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="s" s="28">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="C10" t="s" s="28">
         <v>2100</v>
@@ -36638,7 +36641,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s" s="28">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="C12" t="s" s="28">
         <v>2109</v>
@@ -36663,7 +36666,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s" s="28">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="C13" t="s" s="28">
         <v>2113</v>
@@ -36688,7 +36691,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="s" s="28">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="C14" t="s" s="28">
         <v>2117</v>
@@ -36713,7 +36716,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s" s="28">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="C15" t="s" s="28">
         <v>2121</v>
@@ -36738,7 +36741,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="28">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="C16" t="s" s="28">
         <v>2125</v>
@@ -36786,7 +36789,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="28">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="C18" t="s" s="28">
         <v>2133</v>
@@ -36811,7 +36814,7 @@
         <v>15</v>
       </c>
       <c r="B19" t="s" s="28">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C19" t="s" s="28">
         <v>2141</v>
@@ -36836,7 +36839,7 @@
         <v>16</v>
       </c>
       <c r="B20" t="s" s="28">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C20" t="s" s="28">
         <v>2137</v>
@@ -36861,7 +36864,7 @@
         <v>17</v>
       </c>
       <c r="B21" t="s" s="28">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="C21" t="s" s="28">
         <v>2145</v>
@@ -36886,7 +36889,7 @@
         <v>18</v>
       </c>
       <c r="B22" t="s" s="28">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="C22" t="s" s="28">
         <v>2149</v>
@@ -36911,7 +36914,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="s" s="28">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C23" t="s" s="28">
         <v>2153</v>
@@ -36936,7 +36939,7 @@
         <v>20</v>
       </c>
       <c r="B24" t="s" s="28">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="C24" t="s" s="28">
         <v>2157</v>
@@ -36961,7 +36964,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s" s="28">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="C25" t="s" s="28">
         <v>2161</v>
@@ -36986,7 +36989,7 @@
         <v>22</v>
       </c>
       <c r="B26" t="s" s="28">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="C26" t="s" s="28">
         <v>2165</v>
@@ -37030,7 +37033,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s" s="28">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="C28" t="s" s="28">
         <v>2177</v>
@@ -37055,7 +37058,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s" s="28">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="C29" t="s" s="28">
         <v>2181</v>
@@ -37080,7 +37083,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s" s="28">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="C30" t="s" s="28">
         <v>2185</v>
@@ -37105,7 +37108,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s" s="28">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="C31" t="s" s="28">
         <v>2189</v>
@@ -39026,7 +39029,7 @@
         <v>875</v>
       </c>
       <c r="D91" t="s" s="105">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="E91" s="106">
         <v>240</v>
@@ -40291,10 +40294,10 @@
   <sheetData>
     <row r="1" ht="36.75" customHeight="1">
       <c r="A1" t="s" s="134">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B1" t="s" s="135">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="C1" t="s" s="135">
         <v>2219</v>
